--- a/Data/EC/NIT-9005705490.xlsx
+++ b/Data/EC/NIT-9005705490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B216BFB-C046-477D-973A-E514F0B91A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642B7A0-C576-4945-9A5F-3459EED0C12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7D4644A-F523-4373-83C1-15CB42025837}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55ACD0BC-8BA2-45B9-9A54-65ABA9A5BABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,37 +71,31 @@
     <t>JHON EIDER CASTAÑEDA SAMUDIO</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>26794952</t>
+  </si>
+  <si>
+    <t>IVETH QUIÑONES GIL</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>3821319</t>
-  </si>
-  <si>
-    <t>ALONSO FLOREZ CARPIO</t>
-  </si>
-  <si>
-    <t>26794952</t>
-  </si>
-  <si>
-    <t>IVETH QUIÑONES GIL</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9C2E6F-AB8F-36B6-806B-BC0EA1201CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12776D67-C19B-343C-9323-0125BB29A4CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BC0C04-7475-4C79-AC80-EB18DA6D476C}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD52E85-530A-4631-BE05-3AC0270E6DF9}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -891,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>997952</v>
+        <v>945952</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,14 +978,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1021,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1044,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1058,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>85760</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>2144000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1104,19 +1098,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>85760</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>2144000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1150,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>85760</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>2144000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1179,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1196,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>85760</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>2144000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1219,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>74326</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>2144000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1242,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>85760</v>
@@ -1265,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>85760</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>2144000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1288,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>85760</v>
@@ -1311,98 +1305,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>85760</v>
+        <v>45066</v>
       </c>
       <c r="G28" s="18">
-        <v>2144000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="18">
-        <v>85760</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="C29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="24">
+        <v>74326</v>
+      </c>
+      <c r="G29" s="24">
         <v>2144000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="24">
-        <v>85760</v>
-      </c>
-      <c r="G30" s="24">
-        <v>2144000</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C35" s="32"/>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
